--- a/src/test/resources/ExcelData/RequestData.xlsx
+++ b/src/test/resources/ExcelData/RequestData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>password</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>Patientpassword</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -431,6 +437,14 @@
         <v>36147.0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
